--- a/Framework/TestData/Data.xlsx
+++ b/Framework/TestData/Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\Framework\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\Framework\Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A0F201-F1AA-4E0D-B495-463ED6AA0957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49D1BC7-FBE8-4FFA-89FA-6E95DC865F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="JobTitle" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,19 +26,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Admin</t>
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>Job Description</t>
+  </si>
+  <si>
+    <t>JK_Test</t>
+  </si>
+  <si>
+    <t>Testing purpose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +58,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,7 +378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -367,4 +395,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1452BAE6-7B2F-41A9-B6B5-B3B48C92EA02}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>